--- a/medicine/Handicap/Les_Enfants_d'Isadora/Les_Enfants_d'Isadora.xlsx
+++ b/medicine/Handicap/Les_Enfants_d'Isadora/Les_Enfants_d'Isadora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Enfants_d%27Isadora</t>
+          <t>Les_Enfants_d'Isadora</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants d'Isadora est un film dramatique français réalisé par Damien Manivel et sorti en 2019. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Enfants_d%27Isadora</t>
+          <t>Les_Enfants_d'Isadora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isadora Duncan perd ses deux enfants lors d'un terrible accident en 1913. De ce drame elle tire un solo dansé, "La mère". Le film suit successivement dans le Paris d'aujourd'hui, une danseuse qui étudie ce solo, une chorégraphe qui le met en scène dansé par une jeune autiste et une vieille dame qui assiste au spectacle, bouleversée. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Enfants_d%27Isadora</t>
+          <t>Les_Enfants_d'Isadora</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Les Enfants d'Isadora
 Réalisation : Damien Manivel
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Enfants_d%27Isadora</t>
+          <t>Les_Enfants_d'Isadora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agathe Bonitzer
 Manon Carpentier
